--- a/biology/Biologie cellulaire et moléculaire/Sandra_L._Baldauf/Sandra_L._Baldauf.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sandra_L._Baldauf/Sandra_L._Baldauf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra Leah Baldauf, née le 15 décembre 1951, est une biologiste américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra L. Baldauf a  étudié l'évolution moléculaire et la phylogénie depuis 1985, et a reçu un doctorat (PhD) de l'Université du Michigan à Ann Arbor (États-Unis) en 1990.
 Elle a continué à étudier en profondeur la phylogénie des eucaryotes et l'évolution moléculaire en tant que postdoctorante de l'Université Dalhousie à Halifax en Nouvelle-Écosse (Canada).
@@ -545,12 +559,49 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Son domaine de recherche est une combinaison de phylogénie moléculaire, d'évolution basée sur des modèles de séquence des protéines, et de systématique des principaux taxons orphelins et peu étudiés parmi les organismes eucaryotes, tels que les Dictyostelia  et Choanoflagellata.
-Arbre phylogénétique des Eucaryotes
-Baldauf produit un phylogramme sans racine, ou diagramme en étoile, fondé sur un consensus d'études moléculaires et d'autres données actuelles[1],[2],[3].
-Ses travaux (publiés en 2003)[1] sur la classification phylogénétique des Eucaryotes ont retenu l'attention de Richard Dawkins qui les reprend en référence pour son ouvrage Il était une fois nos ancêtres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son domaine de recherche est une combinaison de phylogénie moléculaire, d'évolution basée sur des modèles de séquence des protéines, et de systématique des principaux taxons orphelins et peu étudiés parmi les organismes eucaryotes, tels que les Dictyostelia  et Choanoflagellata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sandra_L._Baldauf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandra_L._Baldauf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arbre phylogénétique des Eucaryotes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baldauf produit un phylogramme sans racine, ou diagramme en étoile, fondé sur un consensus d'études moléculaires et d'autres données actuelles.
+Ses travaux (publiés en 2003) sur la classification phylogénétique des Eucaryotes ont retenu l'attention de Richard Dawkins qui les reprend en référence pour son ouvrage Il était une fois nos ancêtres.
 Arbre phylogénétique simplifié d'après Baldauf 2003
 ▲
 Eukaryota
@@ -609,10 +660,45 @@
 diplomonades
 parabasalides
 rétortamonades
-D'après Dawkins (2007)[4] pour les termes en français. 
-Après l'analyse de He et al. 2014[5], Baldauf positionne la racine de l'arbre phylogénique des Eucaryotes entre les Excavés et les autres eucaryotes (ensemble formé des Diaphoretickes et des Amorphea)[6].
-Publications
-(en) Sandra L. Baldauf &amp; Jeffrey D. Palmer, "Evolutionary transfer of the chloroplast tqu gene to the nucleus", Nature, Vol.344, No.6263, March 15, 1990, p. 262-265. DOI 10.1038/344262a0
+D'après Dawkins (2007) pour les termes en français. 
+Après l'analyse de He et al. 2014, Baldauf positionne la racine de l'arbre phylogénique des Eucaryotes entre les Excavés et les autres eucaryotes (ensemble formé des Diaphoretickes et des Amorphea).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sandra_L._Baldauf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandra_L._Baldauf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Sandra L. Baldauf &amp; Jeffrey D. Palmer, "Evolutionary transfer of the chloroplast tqu gene to the nucleus", Nature, Vol.344, No.6263, March 15, 1990, p. 262-265. DOI 10.1038/344262a0
 (en) Sandra L. Baldauf, Jame R. Manhart &amp; Jeffrey D. Palmer, "Different fates of the chloroplast tufA gene following its transfer to the nucleus in green algae", Proceedings of the National Academy of Sciences of the United States of America, Vol.87, No.14, July 1, 1990, p. 5317–5321. DOI 10.1073/pnas.87.14.5317
 (en) Sandra L. Baldauf &amp; Jeffrey D. Palmer, "Animals and fungi are each other's closest relatives : Congruent evidence from multiple proteins", Proceedings of the National Academy of Sciences of the United States of America, Vol.90, No.24, December 15, 1993, p. 11558–11562. DOI 10.1073/pnas.90.24.11558
 (en) Sandra L. Baldauf, Jeffrey D. Palmer &amp; W. Ford Doolittle, "The root of the universal tree and the origin of eukaryotes based on elongation factor phylogeny", Proceedings of the National Academy of Sciences of the United States of America, Vol. 93, No.15, July 23, 1996, p. 7749-7754. DOI 10.1073/pnas.93.15.7749
